--- a/Aide/wwwroot/AdvisingMaterial/Majors/Software Engineer/StudyPlan/2016-2017.xlsx
+++ b/Aide/wwwroot/AdvisingMaterial/Majors/Software Engineer/StudyPlan/2016-2017.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammad\OneDrive - asu.edu.jo\Committees\Advising Committee\Advising Material\SE_Plans\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ib_ra\Documents\GitHub\Aide\Aide\wwwroot\AdvisingMaterial\Majors\Software Engineer\StudyPlan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{3E21E6CC-C42B-47E2-BFA0-668CFC1A8BAD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{77D2A4B0-538F-4EA9-BFB3-EAFFD968AD52}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369313A7-98E0-4888-BA3E-0BB59CBF417A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13290" tabRatio="791" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="791" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Crses" sheetId="29" r:id="rId1"/>
@@ -32,7 +32,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -3757,6 +3761,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4126,70 +4142,56 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4859,16 +4861,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>345281</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>26193</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>850106</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>150018</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4898,8 +4900,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="148189950" y="38100"/>
-          <a:ext cx="504825" cy="333375"/>
+          <a:off x="952500" y="26193"/>
+          <a:ext cx="504825" cy="338138"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17112,153 +17114,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="229" t="s">
+      <c r="A1" s="233" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="230"/>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
-      <c r="E1" s="230"/>
-      <c r="F1" s="230"/>
-      <c r="G1" s="230"/>
-      <c r="H1" s="230"/>
-      <c r="I1" s="230"/>
-      <c r="J1" s="230"/>
-      <c r="K1" s="230"/>
-      <c r="L1" s="231"/>
+      <c r="B1" s="234"/>
+      <c r="C1" s="234"/>
+      <c r="D1" s="234"/>
+      <c r="E1" s="234"/>
+      <c r="F1" s="234"/>
+      <c r="G1" s="234"/>
+      <c r="H1" s="234"/>
+      <c r="I1" s="234"/>
+      <c r="J1" s="234"/>
+      <c r="K1" s="234"/>
+      <c r="L1" s="235"/>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="232" t="s">
+      <c r="A2" s="236" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="233"/>
-      <c r="C2" s="233"/>
-      <c r="D2" s="233"/>
-      <c r="E2" s="233"/>
-      <c r="F2" s="233"/>
-      <c r="G2" s="233"/>
-      <c r="H2" s="233"/>
-      <c r="I2" s="233"/>
-      <c r="J2" s="233"/>
-      <c r="K2" s="233"/>
-      <c r="L2" s="234"/>
+      <c r="B2" s="237"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="237"/>
+      <c r="F2" s="237"/>
+      <c r="G2" s="237"/>
+      <c r="H2" s="237"/>
+      <c r="I2" s="237"/>
+      <c r="J2" s="237"/>
+      <c r="K2" s="237"/>
+      <c r="L2" s="238"/>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="232" t="s">
+      <c r="A3" s="236" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="233"/>
-      <c r="C3" s="233"/>
-      <c r="D3" s="233"/>
-      <c r="E3" s="233"/>
-      <c r="F3" s="233"/>
-      <c r="G3" s="233"/>
-      <c r="H3" s="233"/>
-      <c r="I3" s="233"/>
-      <c r="J3" s="233"/>
-      <c r="K3" s="233"/>
-      <c r="L3" s="234"/>
+      <c r="B3" s="237"/>
+      <c r="C3" s="237"/>
+      <c r="D3" s="237"/>
+      <c r="E3" s="237"/>
+      <c r="F3" s="237"/>
+      <c r="G3" s="237"/>
+      <c r="H3" s="237"/>
+      <c r="I3" s="237"/>
+      <c r="J3" s="237"/>
+      <c r="K3" s="237"/>
+      <c r="L3" s="238"/>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="232" t="s">
+      <c r="A4" s="236" t="s">
         <v>509</v>
       </c>
-      <c r="B4" s="233"/>
-      <c r="C4" s="233"/>
-      <c r="D4" s="233"/>
-      <c r="E4" s="233"/>
-      <c r="F4" s="233"/>
-      <c r="G4" s="233"/>
-      <c r="H4" s="233"/>
-      <c r="I4" s="233"/>
-      <c r="J4" s="233"/>
-      <c r="K4" s="233"/>
-      <c r="L4" s="234"/>
+      <c r="B4" s="237"/>
+      <c r="C4" s="237"/>
+      <c r="D4" s="237"/>
+      <c r="E4" s="237"/>
+      <c r="F4" s="237"/>
+      <c r="G4" s="237"/>
+      <c r="H4" s="237"/>
+      <c r="I4" s="237"/>
+      <c r="J4" s="237"/>
+      <c r="K4" s="237"/>
+      <c r="L4" s="238"/>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="235" t="s">
+      <c r="A5" s="239" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="236"/>
-      <c r="C5" s="236"/>
-      <c r="D5" s="236"/>
-      <c r="E5" s="236"/>
-      <c r="F5" s="236"/>
-      <c r="G5" s="237"/>
-      <c r="H5" s="237"/>
-      <c r="I5" s="237"/>
-      <c r="J5" s="237"/>
-      <c r="K5" s="237"/>
-      <c r="L5" s="238"/>
+      <c r="B5" s="240"/>
+      <c r="C5" s="240"/>
+      <c r="D5" s="240"/>
+      <c r="E5" s="240"/>
+      <c r="F5" s="240"/>
+      <c r="G5" s="241"/>
+      <c r="H5" s="241"/>
+      <c r="I5" s="241"/>
+      <c r="J5" s="241"/>
+      <c r="K5" s="241"/>
+      <c r="L5" s="242"/>
     </row>
     <row r="6" spans="1:17" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="250" t="s">
+      <c r="A6" s="254" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="250"/>
-      <c r="C6" s="250"/>
-      <c r="D6" s="250"/>
-      <c r="E6" s="250"/>
-      <c r="F6" s="250"/>
-      <c r="G6" s="251" t="s">
+      <c r="B6" s="254"/>
+      <c r="C6" s="254"/>
+      <c r="D6" s="254"/>
+      <c r="E6" s="254"/>
+      <c r="F6" s="254"/>
+      <c r="G6" s="255" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="251"/>
-      <c r="I6" s="251"/>
-      <c r="J6" s="251"/>
-      <c r="K6" s="251"/>
-      <c r="L6" s="252"/>
+      <c r="H6" s="255"/>
+      <c r="I6" s="255"/>
+      <c r="J6" s="255"/>
+      <c r="K6" s="255"/>
+      <c r="L6" s="256"/>
     </row>
     <row r="7" spans="1:17" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="253" t="s">
+      <c r="A7" s="257" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="254"/>
-      <c r="C7" s="254"/>
-      <c r="D7" s="254"/>
-      <c r="E7" s="254"/>
-      <c r="F7" s="255"/>
-      <c r="G7" s="256" t="s">
+      <c r="B7" s="258"/>
+      <c r="C7" s="258"/>
+      <c r="D7" s="258"/>
+      <c r="E7" s="258"/>
+      <c r="F7" s="259"/>
+      <c r="G7" s="260" t="s">
         <v>69</v>
       </c>
-      <c r="H7" s="256"/>
-      <c r="I7" s="256"/>
-      <c r="J7" s="256"/>
-      <c r="K7" s="256"/>
-      <c r="L7" s="257"/>
+      <c r="H7" s="260"/>
+      <c r="I7" s="260"/>
+      <c r="J7" s="260"/>
+      <c r="K7" s="260"/>
+      <c r="L7" s="261"/>
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="263" t="s">
+      <c r="A8" s="267" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="266" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="266"/>
-      <c r="E8" s="267"/>
-      <c r="F8" s="239" t="s">
+      <c r="C8" s="270" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="270"/>
+      <c r="E8" s="271"/>
+      <c r="F8" s="243" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="263" t="s">
+      <c r="G8" s="267" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="263" t="s">
+      <c r="H8" s="267" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="266" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="266"/>
-      <c r="K8" s="267"/>
-      <c r="L8" s="239" t="s">
+      <c r="I8" s="270" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="270"/>
+      <c r="K8" s="271"/>
+      <c r="L8" s="243" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="1" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="264"/>
+      <c r="A9" s="268"/>
       <c r="B9" s="76"/>
       <c r="C9" s="77" t="s">
         <v>4</v>
@@ -17269,9 +17271,9 @@
       <c r="E9" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="240"/>
-      <c r="G9" s="264"/>
-      <c r="H9" s="265"/>
+      <c r="F9" s="244"/>
+      <c r="G9" s="268"/>
+      <c r="H9" s="269"/>
       <c r="I9" s="77" t="s">
         <v>4</v>
       </c>
@@ -17281,7 +17283,7 @@
       <c r="K9" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="240"/>
+      <c r="L9" s="244"/>
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="56">
@@ -17532,14 +17534,14 @@
       <c r="Q14" s="10"/>
     </row>
     <row r="15" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="268" t="s">
+      <c r="A15" s="272" t="s">
         <v>524</v>
       </c>
-      <c r="B15" s="269"/>
-      <c r="C15" s="269"/>
-      <c r="D15" s="269"/>
-      <c r="E15" s="269"/>
-      <c r="F15" s="269"/>
+      <c r="B15" s="273"/>
+      <c r="C15" s="273"/>
+      <c r="D15" s="273"/>
+      <c r="E15" s="273"/>
+      <c r="F15" s="273"/>
       <c r="G15" s="47">
         <v>1301310</v>
       </c>
@@ -18566,14 +18568,14 @@
         <f>VLOOKUP($A36,Crses!$A$2:$J$282,8,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="G36" s="270" t="s">
+      <c r="G36" s="274" t="s">
         <v>529</v>
       </c>
-      <c r="H36" s="270"/>
-      <c r="I36" s="270"/>
-      <c r="J36" s="270"/>
-      <c r="K36" s="270"/>
-      <c r="L36" s="271"/>
+      <c r="H36" s="274"/>
+      <c r="I36" s="274"/>
+      <c r="J36" s="274"/>
+      <c r="K36" s="274"/>
+      <c r="L36" s="275"/>
     </row>
     <row r="37" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="47">
@@ -18599,14 +18601,14 @@
         <f>VLOOKUP($A37,Crses!$A$2:$J$282,8,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="G37" s="256" t="s">
+      <c r="G37" s="260" t="s">
         <v>76</v>
       </c>
-      <c r="H37" s="256"/>
-      <c r="I37" s="256"/>
-      <c r="J37" s="256"/>
-      <c r="K37" s="256"/>
-      <c r="L37" s="257"/>
+      <c r="H37" s="260"/>
+      <c r="I37" s="260"/>
+      <c r="J37" s="260"/>
+      <c r="K37" s="260"/>
+      <c r="L37" s="261"/>
     </row>
     <row r="38" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="51">
@@ -18657,14 +18659,14 @@
       </c>
     </row>
     <row r="39" spans="1:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="272" t="s">
+      <c r="A39" s="276" t="s">
         <v>527</v>
       </c>
-      <c r="B39" s="273"/>
-      <c r="C39" s="273"/>
-      <c r="D39" s="273"/>
-      <c r="E39" s="273"/>
-      <c r="F39" s="274"/>
+      <c r="B39" s="277"/>
+      <c r="C39" s="277"/>
+      <c r="D39" s="277"/>
+      <c r="E39" s="277"/>
+      <c r="F39" s="278"/>
       <c r="G39" s="47">
         <v>601426</v>
       </c>
@@ -18690,14 +18692,14 @@
       </c>
     </row>
     <row r="40" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="275" t="s">
+      <c r="A40" s="279" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="276"/>
-      <c r="C40" s="276"/>
-      <c r="D40" s="276"/>
-      <c r="E40" s="276"/>
-      <c r="F40" s="277"/>
+      <c r="B40" s="280"/>
+      <c r="C40" s="280"/>
+      <c r="D40" s="280"/>
+      <c r="E40" s="280"/>
+      <c r="F40" s="281"/>
       <c r="G40" s="47">
         <v>1301208</v>
       </c>
@@ -18723,12 +18725,12 @@
       </c>
     </row>
     <row r="41" spans="1:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="278"/>
-      <c r="B41" s="279"/>
-      <c r="C41" s="279"/>
-      <c r="D41" s="279"/>
-      <c r="E41" s="279"/>
-      <c r="F41" s="280"/>
+      <c r="A41" s="282"/>
+      <c r="B41" s="283"/>
+      <c r="C41" s="283"/>
+      <c r="D41" s="283"/>
+      <c r="E41" s="283"/>
+      <c r="F41" s="284"/>
       <c r="G41" s="47">
         <v>1301371</v>
       </c>
@@ -18754,14 +18756,14 @@
       </c>
     </row>
     <row r="42" spans="1:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="260" t="s">
+      <c r="A42" s="264" t="s">
         <v>528</v>
       </c>
-      <c r="B42" s="261"/>
-      <c r="C42" s="261"/>
-      <c r="D42" s="261"/>
-      <c r="E42" s="261"/>
-      <c r="F42" s="262"/>
+      <c r="B42" s="265"/>
+      <c r="C42" s="265"/>
+      <c r="D42" s="265"/>
+      <c r="E42" s="265"/>
+      <c r="F42" s="266"/>
       <c r="G42" s="47">
         <v>1301455</v>
       </c>
@@ -18833,8 +18835,8 @@
         <f>VLOOKUP($G43,Crses!$A$2:$J$282,8,FALSE)</f>
         <v>1302281</v>
       </c>
-      <c r="O43" s="259"/>
-      <c r="P43" s="259"/>
+      <c r="O43" s="263"/>
+      <c r="P43" s="263"/>
     </row>
     <row r="44" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="47">
@@ -19215,66 +19217,66 @@
       </c>
     </row>
     <row r="52" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="282" t="s">
+      <c r="A52" s="286" t="s">
         <v>66</v>
       </c>
-      <c r="B52" s="282"/>
-      <c r="C52" s="282"/>
-      <c r="D52" s="282"/>
-      <c r="E52" s="282"/>
-      <c r="F52" s="282"/>
-      <c r="G52" s="241"/>
-      <c r="H52" s="242"/>
-      <c r="I52" s="242"/>
-      <c r="J52" s="242"/>
-      <c r="K52" s="242"/>
-      <c r="L52" s="243"/>
+      <c r="B52" s="286"/>
+      <c r="C52" s="286"/>
+      <c r="D52" s="286"/>
+      <c r="E52" s="286"/>
+      <c r="F52" s="286"/>
+      <c r="G52" s="245"/>
+      <c r="H52" s="246"/>
+      <c r="I52" s="246"/>
+      <c r="J52" s="246"/>
+      <c r="K52" s="246"/>
+      <c r="L52" s="247"/>
     </row>
     <row r="53" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="281" t="s">
+      <c r="A53" s="285" t="s">
         <v>67</v>
       </c>
-      <c r="B53" s="281"/>
-      <c r="C53" s="281"/>
-      <c r="D53" s="281"/>
-      <c r="E53" s="281"/>
-      <c r="F53" s="281"/>
-      <c r="G53" s="244"/>
-      <c r="H53" s="245"/>
-      <c r="I53" s="245"/>
-      <c r="J53" s="245"/>
-      <c r="K53" s="245"/>
-      <c r="L53" s="246"/>
+      <c r="B53" s="285"/>
+      <c r="C53" s="285"/>
+      <c r="D53" s="285"/>
+      <c r="E53" s="285"/>
+      <c r="F53" s="285"/>
+      <c r="G53" s="248"/>
+      <c r="H53" s="249"/>
+      <c r="I53" s="249"/>
+      <c r="J53" s="249"/>
+      <c r="K53" s="249"/>
+      <c r="L53" s="250"/>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="281"/>
-      <c r="B54" s="281"/>
-      <c r="C54" s="281"/>
-      <c r="D54" s="281"/>
-      <c r="E54" s="281"/>
-      <c r="F54" s="281"/>
-      <c r="G54" s="247"/>
-      <c r="H54" s="248"/>
-      <c r="I54" s="248"/>
-      <c r="J54" s="248"/>
-      <c r="K54" s="248"/>
-      <c r="L54" s="249"/>
+      <c r="A54" s="285"/>
+      <c r="B54" s="285"/>
+      <c r="C54" s="285"/>
+      <c r="D54" s="285"/>
+      <c r="E54" s="285"/>
+      <c r="F54" s="285"/>
+      <c r="G54" s="251"/>
+      <c r="H54" s="252"/>
+      <c r="I54" s="252"/>
+      <c r="J54" s="252"/>
+      <c r="K54" s="252"/>
+      <c r="L54" s="253"/>
     </row>
     <row r="55" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="258" t="s">
+      <c r="A55" s="262" t="s">
         <v>546</v>
       </c>
-      <c r="B55" s="258"/>
-      <c r="C55" s="258"/>
-      <c r="D55" s="258"/>
-      <c r="E55" s="258"/>
-      <c r="F55" s="258"/>
-      <c r="G55" s="258"/>
-      <c r="H55" s="258"/>
-      <c r="I55" s="258"/>
-      <c r="J55" s="258"/>
-      <c r="K55" s="258"/>
-      <c r="L55" s="258"/>
+      <c r="B55" s="262"/>
+      <c r="C55" s="262"/>
+      <c r="D55" s="262"/>
+      <c r="E55" s="262"/>
+      <c r="F55" s="262"/>
+      <c r="G55" s="262"/>
+      <c r="H55" s="262"/>
+      <c r="I55" s="262"/>
+      <c r="J55" s="262"/>
+      <c r="K55" s="262"/>
+      <c r="L55" s="262"/>
     </row>
     <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
@@ -19449,177 +19451,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="333" t="s">
+      <c r="A1" s="337" t="s">
         <v>441</v>
       </c>
-      <c r="B1" s="333"/>
-      <c r="C1" s="333"/>
-      <c r="D1" s="333"/>
-      <c r="E1" s="333"/>
-      <c r="F1" s="333"/>
-      <c r="G1" s="333"/>
-      <c r="H1" s="333"/>
-      <c r="I1" s="333"/>
-      <c r="J1" s="333"/>
-      <c r="K1" s="333"/>
-      <c r="L1" s="333"/>
+      <c r="B1" s="337"/>
+      <c r="C1" s="337"/>
+      <c r="D1" s="337"/>
+      <c r="E1" s="337"/>
+      <c r="F1" s="337"/>
+      <c r="G1" s="337"/>
+      <c r="H1" s="337"/>
+      <c r="I1" s="337"/>
+      <c r="J1" s="337"/>
+      <c r="K1" s="337"/>
+      <c r="L1" s="337"/>
     </row>
     <row r="2" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="333" t="s">
+      <c r="A2" s="337" t="s">
         <v>442</v>
       </c>
-      <c r="B2" s="333"/>
-      <c r="C2" s="333"/>
-      <c r="D2" s="333"/>
-      <c r="E2" s="333"/>
-      <c r="F2" s="333"/>
-      <c r="G2" s="333"/>
-      <c r="H2" s="333"/>
-      <c r="I2" s="333"/>
-      <c r="J2" s="333"/>
-      <c r="K2" s="333"/>
-      <c r="L2" s="333"/>
+      <c r="B2" s="337"/>
+      <c r="C2" s="337"/>
+      <c r="D2" s="337"/>
+      <c r="E2" s="337"/>
+      <c r="F2" s="337"/>
+      <c r="G2" s="337"/>
+      <c r="H2" s="337"/>
+      <c r="I2" s="337"/>
+      <c r="J2" s="337"/>
+      <c r="K2" s="337"/>
+      <c r="L2" s="337"/>
     </row>
     <row r="3" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="333" t="s">
+      <c r="A3" s="337" t="s">
         <v>456</v>
       </c>
-      <c r="B3" s="333"/>
-      <c r="C3" s="333"/>
-      <c r="D3" s="333"/>
-      <c r="E3" s="333"/>
-      <c r="F3" s="333"/>
-      <c r="G3" s="333"/>
-      <c r="H3" s="333"/>
-      <c r="I3" s="333"/>
-      <c r="J3" s="333"/>
-      <c r="K3" s="333"/>
-      <c r="L3" s="333"/>
+      <c r="B3" s="337"/>
+      <c r="C3" s="337"/>
+      <c r="D3" s="337"/>
+      <c r="E3" s="337"/>
+      <c r="F3" s="337"/>
+      <c r="G3" s="337"/>
+      <c r="H3" s="337"/>
+      <c r="I3" s="337"/>
+      <c r="J3" s="337"/>
+      <c r="K3" s="337"/>
+      <c r="L3" s="337"/>
     </row>
     <row r="4" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="333" t="s">
+      <c r="A4" s="337" t="s">
         <v>553</v>
       </c>
-      <c r="B4" s="333"/>
-      <c r="C4" s="333"/>
-      <c r="D4" s="333"/>
-      <c r="E4" s="333"/>
-      <c r="F4" s="333"/>
-      <c r="G4" s="333"/>
-      <c r="H4" s="333"/>
-      <c r="I4" s="333"/>
-      <c r="J4" s="333"/>
-      <c r="K4" s="333"/>
-      <c r="L4" s="333"/>
+      <c r="B4" s="337"/>
+      <c r="C4" s="337"/>
+      <c r="D4" s="337"/>
+      <c r="E4" s="337"/>
+      <c r="F4" s="337"/>
+      <c r="G4" s="337"/>
+      <c r="H4" s="337"/>
+      <c r="I4" s="337"/>
+      <c r="J4" s="337"/>
+      <c r="K4" s="337"/>
+      <c r="L4" s="337"/>
     </row>
     <row r="5" spans="1:18" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="334" t="s">
+      <c r="A5" s="338" t="s">
         <v>443</v>
       </c>
-      <c r="B5" s="334"/>
-      <c r="C5" s="334"/>
-      <c r="D5" s="334"/>
-      <c r="E5" s="334"/>
-      <c r="F5" s="334"/>
-      <c r="G5" s="334"/>
-      <c r="H5" s="334"/>
-      <c r="I5" s="334"/>
-      <c r="J5" s="334"/>
-      <c r="K5" s="334"/>
-      <c r="L5" s="334"/>
+      <c r="B5" s="338"/>
+      <c r="C5" s="338"/>
+      <c r="D5" s="338"/>
+      <c r="E5" s="338"/>
+      <c r="F5" s="338"/>
+      <c r="G5" s="338"/>
+      <c r="H5" s="338"/>
+      <c r="I5" s="338"/>
+      <c r="J5" s="338"/>
+      <c r="K5" s="338"/>
+      <c r="L5" s="338"/>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="330" t="s">
+      <c r="A6" s="334" t="s">
         <v>510</v>
       </c>
-      <c r="B6" s="331"/>
-      <c r="C6" s="331"/>
-      <c r="D6" s="331"/>
-      <c r="E6" s="331"/>
-      <c r="F6" s="332"/>
-      <c r="G6" s="330" t="s">
+      <c r="B6" s="335"/>
+      <c r="C6" s="335"/>
+      <c r="D6" s="335"/>
+      <c r="E6" s="335"/>
+      <c r="F6" s="336"/>
+      <c r="G6" s="334" t="s">
         <v>444</v>
       </c>
-      <c r="H6" s="331"/>
-      <c r="I6" s="331"/>
-      <c r="J6" s="331"/>
+      <c r="H6" s="335"/>
+      <c r="I6" s="335"/>
+      <c r="J6" s="335"/>
       <c r="K6" s="36"/>
       <c r="L6" s="37"/>
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="304" t="s">
+      <c r="A7" s="308" t="s">
         <v>445</v>
       </c>
-      <c r="B7" s="305"/>
-      <c r="C7" s="305"/>
-      <c r="D7" s="305"/>
-      <c r="E7" s="305"/>
-      <c r="F7" s="306"/>
-      <c r="G7" s="304" t="s">
+      <c r="B7" s="309"/>
+      <c r="C7" s="309"/>
+      <c r="D7" s="309"/>
+      <c r="E7" s="309"/>
+      <c r="F7" s="310"/>
+      <c r="G7" s="308" t="s">
         <v>457</v>
       </c>
-      <c r="H7" s="305"/>
-      <c r="I7" s="305"/>
-      <c r="J7" s="305"/>
-      <c r="K7" s="305"/>
-      <c r="L7" s="306"/>
+      <c r="H7" s="309"/>
+      <c r="I7" s="309"/>
+      <c r="J7" s="309"/>
+      <c r="K7" s="309"/>
+      <c r="L7" s="310"/>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="298" t="s">
+      <c r="A8" s="302" t="s">
         <v>446</v>
       </c>
-      <c r="B8" s="300" t="s">
+      <c r="B8" s="304" t="s">
         <v>447</v>
       </c>
-      <c r="C8" s="302" t="s">
+      <c r="C8" s="306" t="s">
         <v>448</v>
       </c>
-      <c r="D8" s="303"/>
-      <c r="E8" s="300" t="s">
+      <c r="D8" s="307"/>
+      <c r="E8" s="304" t="s">
         <v>461</v>
       </c>
-      <c r="F8" s="324" t="s">
+      <c r="F8" s="328" t="s">
         <v>449</v>
       </c>
-      <c r="G8" s="298" t="s">
+      <c r="G8" s="302" t="s">
         <v>446</v>
       </c>
-      <c r="H8" s="300" t="s">
+      <c r="H8" s="304" t="s">
         <v>447</v>
       </c>
-      <c r="I8" s="302" t="s">
+      <c r="I8" s="306" t="s">
         <v>448</v>
       </c>
-      <c r="J8" s="303"/>
-      <c r="K8" s="300" t="s">
+      <c r="J8" s="307"/>
+      <c r="K8" s="304" t="s">
         <v>461</v>
       </c>
-      <c r="L8" s="327" t="s">
+      <c r="L8" s="331" t="s">
         <v>449</v>
       </c>
       <c r="R8" s="26"/>
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="299"/>
-      <c r="B9" s="301"/>
+      <c r="A9" s="303"/>
+      <c r="B9" s="305"/>
       <c r="C9" s="67" t="s">
         <v>450</v>
       </c>
       <c r="D9" s="67" t="s">
         <v>451</v>
       </c>
-      <c r="E9" s="301"/>
-      <c r="F9" s="325"/>
-      <c r="G9" s="329"/>
-      <c r="H9" s="326"/>
+      <c r="E9" s="305"/>
+      <c r="F9" s="329"/>
+      <c r="G9" s="333"/>
+      <c r="H9" s="330"/>
       <c r="I9" s="27" t="s">
         <v>450</v>
       </c>
       <c r="J9" s="27" t="s">
         <v>451</v>
       </c>
-      <c r="K9" s="326"/>
-      <c r="L9" s="328"/>
+      <c r="K9" s="330"/>
+      <c r="L9" s="332"/>
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="56">
@@ -19871,14 +19873,14 @@
       <c r="R14" s="10"/>
     </row>
     <row r="15" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="322" t="s">
+      <c r="A15" s="326" t="s">
         <v>554</v>
       </c>
-      <c r="B15" s="323"/>
-      <c r="C15" s="323"/>
-      <c r="D15" s="323"/>
-      <c r="E15" s="323"/>
-      <c r="F15" s="323"/>
+      <c r="B15" s="327"/>
+      <c r="C15" s="327"/>
+      <c r="D15" s="327"/>
+      <c r="E15" s="327"/>
+      <c r="F15" s="327"/>
       <c r="G15" s="47">
         <v>1301310</v>
       </c>
@@ -20956,14 +20958,14 @@
         <f>VLOOKUP($A37,Crses!$A$2:$J$282,8,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="G37" s="313" t="s">
+      <c r="G37" s="317" t="s">
         <v>518</v>
       </c>
-      <c r="H37" s="314"/>
-      <c r="I37" s="314"/>
-      <c r="J37" s="314"/>
-      <c r="K37" s="314"/>
-      <c r="L37" s="315"/>
+      <c r="H37" s="318"/>
+      <c r="I37" s="318"/>
+      <c r="J37" s="318"/>
+      <c r="K37" s="318"/>
+      <c r="L37" s="319"/>
     </row>
     <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="47">
@@ -20989,14 +20991,14 @@
         <f>VLOOKUP($A38,Crses!$A$2:$J$282,8,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="G38" s="316" t="s">
+      <c r="G38" s="320" t="s">
         <v>458</v>
       </c>
-      <c r="H38" s="317"/>
-      <c r="I38" s="317"/>
-      <c r="J38" s="317"/>
-      <c r="K38" s="317"/>
-      <c r="L38" s="318"/>
+      <c r="H38" s="321"/>
+      <c r="I38" s="321"/>
+      <c r="J38" s="321"/>
+      <c r="K38" s="321"/>
+      <c r="L38" s="322"/>
     </row>
     <row r="39" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="51">
@@ -21022,22 +21024,22 @@
         <f>VLOOKUP($A39,Crses!$A$2:$J$282,8,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="G39" s="319"/>
-      <c r="H39" s="320"/>
-      <c r="I39" s="320"/>
-      <c r="J39" s="320"/>
-      <c r="K39" s="320"/>
-      <c r="L39" s="321"/>
+      <c r="G39" s="323"/>
+      <c r="H39" s="324"/>
+      <c r="I39" s="324"/>
+      <c r="J39" s="324"/>
+      <c r="K39" s="324"/>
+      <c r="L39" s="325"/>
     </row>
     <row r="40" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="283" t="s">
+      <c r="A40" s="287" t="s">
         <v>514</v>
       </c>
-      <c r="B40" s="284"/>
-      <c r="C40" s="284"/>
-      <c r="D40" s="284"/>
-      <c r="E40" s="284"/>
-      <c r="F40" s="285"/>
+      <c r="B40" s="288"/>
+      <c r="C40" s="288"/>
+      <c r="D40" s="288"/>
+      <c r="E40" s="288"/>
+      <c r="F40" s="289"/>
       <c r="G40" s="47">
         <v>1303237</v>
       </c>
@@ -21063,14 +21065,14 @@
       </c>
     </row>
     <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="286" t="s">
+      <c r="A41" s="290" t="s">
         <v>521</v>
       </c>
-      <c r="B41" s="287"/>
-      <c r="C41" s="287"/>
-      <c r="D41" s="287"/>
-      <c r="E41" s="287"/>
-      <c r="F41" s="288"/>
+      <c r="B41" s="291"/>
+      <c r="C41" s="291"/>
+      <c r="D41" s="291"/>
+      <c r="E41" s="291"/>
+      <c r="F41" s="292"/>
       <c r="G41" s="47">
         <v>1301208</v>
       </c>
@@ -21096,12 +21098,12 @@
       </c>
     </row>
     <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="289"/>
-      <c r="B42" s="290"/>
-      <c r="C42" s="290"/>
-      <c r="D42" s="290"/>
-      <c r="E42" s="290"/>
-      <c r="F42" s="291"/>
+      <c r="A42" s="293"/>
+      <c r="B42" s="294"/>
+      <c r="C42" s="294"/>
+      <c r="D42" s="294"/>
+      <c r="E42" s="294"/>
+      <c r="F42" s="295"/>
       <c r="G42" s="47">
         <v>1301371</v>
       </c>
@@ -21127,12 +21129,12 @@
       </c>
     </row>
     <row r="43" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="292"/>
-      <c r="B43" s="293"/>
-      <c r="C43" s="293"/>
-      <c r="D43" s="293"/>
-      <c r="E43" s="293"/>
-      <c r="F43" s="294"/>
+      <c r="A43" s="296"/>
+      <c r="B43" s="297"/>
+      <c r="C43" s="297"/>
+      <c r="D43" s="297"/>
+      <c r="E43" s="297"/>
+      <c r="F43" s="298"/>
       <c r="G43" s="47">
         <v>1301455</v>
       </c>
@@ -21156,8 +21158,8 @@
         <f>VLOOKUP($G43,Crses!$A$2:$J$282,8,FALSE)</f>
         <v>1301310</v>
       </c>
-      <c r="P43" s="259"/>
-      <c r="Q43" s="259"/>
+      <c r="P43" s="263"/>
+      <c r="Q43" s="263"/>
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="35" t="s">
@@ -21620,36 +21622,36 @@
       <c r="L54" s="212"/>
     </row>
     <row r="55" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="310" t="s">
+      <c r="A55" s="314" t="s">
         <v>454</v>
       </c>
-      <c r="B55" s="311"/>
-      <c r="C55" s="311"/>
-      <c r="D55" s="311"/>
-      <c r="E55" s="311"/>
-      <c r="F55" s="312"/>
-      <c r="G55" s="295"/>
-      <c r="H55" s="296"/>
-      <c r="I55" s="296"/>
-      <c r="J55" s="296"/>
-      <c r="K55" s="296"/>
-      <c r="L55" s="297"/>
+      <c r="B55" s="315"/>
+      <c r="C55" s="315"/>
+      <c r="D55" s="315"/>
+      <c r="E55" s="315"/>
+      <c r="F55" s="316"/>
+      <c r="G55" s="299"/>
+      <c r="H55" s="300"/>
+      <c r="I55" s="300"/>
+      <c r="J55" s="300"/>
+      <c r="K55" s="300"/>
+      <c r="L55" s="301"/>
     </row>
     <row r="56" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="307" t="s">
+      <c r="A56" s="311" t="s">
         <v>559</v>
       </c>
-      <c r="B56" s="308"/>
-      <c r="C56" s="308"/>
-      <c r="D56" s="308"/>
-      <c r="E56" s="308"/>
-      <c r="F56" s="308"/>
-      <c r="G56" s="308"/>
-      <c r="H56" s="308"/>
-      <c r="I56" s="308"/>
-      <c r="J56" s="308"/>
-      <c r="K56" s="308"/>
-      <c r="L56" s="309"/>
+      <c r="B56" s="312"/>
+      <c r="C56" s="312"/>
+      <c r="D56" s="312"/>
+      <c r="E56" s="312"/>
+      <c r="F56" s="312"/>
+      <c r="G56" s="312"/>
+      <c r="H56" s="312"/>
+      <c r="I56" s="312"/>
+      <c r="J56" s="312"/>
+      <c r="K56" s="312"/>
+      <c r="L56" s="313"/>
       <c r="N56" s="13"/>
     </row>
     <row r="57" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -21751,75 +21753,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="338" t="s">
+      <c r="B1" s="342" t="s">
         <v>562</v>
       </c>
-      <c r="C1" s="339"/>
-      <c r="D1" s="339"/>
-      <c r="E1" s="339"/>
-      <c r="F1" s="339"/>
-      <c r="G1" s="339"/>
-      <c r="H1" s="339"/>
-      <c r="I1" s="340"/>
-      <c r="J1" s="340"/>
-      <c r="K1" s="340"/>
-      <c r="L1" s="340"/>
-      <c r="M1" s="340"/>
-      <c r="N1" s="341"/>
+      <c r="C1" s="343"/>
+      <c r="D1" s="343"/>
+      <c r="E1" s="343"/>
+      <c r="F1" s="343"/>
+      <c r="G1" s="343"/>
+      <c r="H1" s="343"/>
+      <c r="I1" s="344"/>
+      <c r="J1" s="344"/>
+      <c r="K1" s="344"/>
+      <c r="L1" s="344"/>
+      <c r="M1" s="344"/>
+      <c r="N1" s="345"/>
     </row>
     <row r="2" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="345" t="s">
+      <c r="B2" s="349" t="s">
         <v>459</v>
       </c>
-      <c r="C2" s="345"/>
-      <c r="D2" s="345"/>
-      <c r="E2" s="345"/>
-      <c r="F2" s="345"/>
-      <c r="G2" s="346"/>
+      <c r="C2" s="349"/>
+      <c r="D2" s="349"/>
+      <c r="E2" s="349"/>
+      <c r="F2" s="349"/>
+      <c r="G2" s="350"/>
       <c r="H2" s="99"/>
-      <c r="I2" s="345" t="s">
+      <c r="I2" s="349" t="s">
         <v>460</v>
       </c>
-      <c r="J2" s="345"/>
-      <c r="K2" s="345"/>
-      <c r="L2" s="345"/>
-      <c r="M2" s="345"/>
-      <c r="N2" s="346"/>
+      <c r="J2" s="349"/>
+      <c r="K2" s="349"/>
+      <c r="L2" s="349"/>
+      <c r="M2" s="349"/>
+      <c r="N2" s="350"/>
     </row>
     <row r="3" spans="2:14" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="342" t="s">
+      <c r="B3" s="346" t="s">
         <v>446</v>
       </c>
-      <c r="C3" s="342" t="s">
+      <c r="C3" s="346" t="s">
         <v>447</v>
       </c>
-      <c r="D3" s="342" t="s">
+      <c r="D3" s="346" t="s">
         <v>461</v>
       </c>
-      <c r="E3" s="342"/>
-      <c r="F3" s="342"/>
-      <c r="G3" s="342" t="s">
+      <c r="E3" s="346"/>
+      <c r="F3" s="346"/>
+      <c r="G3" s="346" t="s">
         <v>462</v>
       </c>
       <c r="H3" s="100"/>
-      <c r="I3" s="342" t="s">
+      <c r="I3" s="346" t="s">
         <v>446</v>
       </c>
-      <c r="J3" s="342" t="s">
+      <c r="J3" s="346" t="s">
         <v>447</v>
       </c>
-      <c r="K3" s="342" t="s">
+      <c r="K3" s="346" t="s">
         <v>461</v>
       </c>
-      <c r="L3" s="342"/>
-      <c r="M3" s="342"/>
-      <c r="N3" s="342" t="s">
+      <c r="L3" s="346"/>
+      <c r="M3" s="346"/>
+      <c r="N3" s="346" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="342"/>
-      <c r="C4" s="342"/>
+      <c r="B4" s="346"/>
+      <c r="C4" s="346"/>
       <c r="D4" s="87" t="s">
         <v>463</v>
       </c>
@@ -21829,10 +21831,10 @@
       <c r="F4" s="87" t="s">
         <v>452</v>
       </c>
-      <c r="G4" s="342"/>
+      <c r="G4" s="346"/>
       <c r="H4" s="100"/>
-      <c r="I4" s="342"/>
-      <c r="J4" s="342"/>
+      <c r="I4" s="346"/>
+      <c r="J4" s="346"/>
       <c r="K4" s="87" t="s">
         <v>463</v>
       </c>
@@ -21842,7 +21844,7 @@
       <c r="M4" s="87" t="s">
         <v>452</v>
       </c>
-      <c r="N4" s="342"/>
+      <c r="N4" s="346"/>
     </row>
     <row r="5" spans="2:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="112">
@@ -22090,10 +22092,10 @@
       </c>
     </row>
     <row r="10" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="343" t="s">
+      <c r="B10" s="347" t="s">
         <v>452</v>
       </c>
-      <c r="C10" s="344"/>
+      <c r="C10" s="348"/>
       <c r="D10" s="88">
         <f>SUM(D5:D9)</f>
         <v>14</v>
@@ -22108,10 +22110,10 @@
       </c>
       <c r="G10" s="89"/>
       <c r="H10" s="102"/>
-      <c r="I10" s="343" t="s">
+      <c r="I10" s="347" t="s">
         <v>452</v>
       </c>
-      <c r="J10" s="344"/>
+      <c r="J10" s="348"/>
       <c r="K10" s="88">
         <f>SUM(K5:K9)</f>
         <v>14</v>
@@ -22142,58 +22144,58 @@
       <c r="N11" s="98"/>
     </row>
     <row r="12" spans="2:14" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="345" t="s">
+      <c r="B12" s="349" t="s">
         <v>465</v>
       </c>
-      <c r="C12" s="345"/>
-      <c r="D12" s="345"/>
-      <c r="E12" s="345"/>
-      <c r="F12" s="345"/>
-      <c r="G12" s="346"/>
+      <c r="C12" s="349"/>
+      <c r="D12" s="349"/>
+      <c r="E12" s="349"/>
+      <c r="F12" s="349"/>
+      <c r="G12" s="350"/>
       <c r="H12" s="103"/>
-      <c r="I12" s="345" t="s">
+      <c r="I12" s="349" t="s">
         <v>466</v>
       </c>
-      <c r="J12" s="345"/>
-      <c r="K12" s="345"/>
-      <c r="L12" s="345"/>
-      <c r="M12" s="345"/>
-      <c r="N12" s="346"/>
+      <c r="J12" s="349"/>
+      <c r="K12" s="349"/>
+      <c r="L12" s="349"/>
+      <c r="M12" s="349"/>
+      <c r="N12" s="350"/>
     </row>
     <row r="13" spans="2:14" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="342" t="s">
+      <c r="B13" s="346" t="s">
         <v>446</v>
       </c>
-      <c r="C13" s="342" t="s">
+      <c r="C13" s="346" t="s">
         <v>447</v>
       </c>
-      <c r="D13" s="342" t="s">
+      <c r="D13" s="346" t="s">
         <v>461</v>
       </c>
-      <c r="E13" s="342"/>
-      <c r="F13" s="342"/>
-      <c r="G13" s="342" t="s">
+      <c r="E13" s="346"/>
+      <c r="F13" s="346"/>
+      <c r="G13" s="346" t="s">
         <v>462</v>
       </c>
       <c r="H13" s="101"/>
-      <c r="I13" s="342" t="s">
+      <c r="I13" s="346" t="s">
         <v>446</v>
       </c>
-      <c r="J13" s="342" t="s">
+      <c r="J13" s="346" t="s">
         <v>447</v>
       </c>
-      <c r="K13" s="342" t="s">
+      <c r="K13" s="346" t="s">
         <v>461</v>
       </c>
-      <c r="L13" s="342"/>
-      <c r="M13" s="342"/>
-      <c r="N13" s="342" t="s">
+      <c r="L13" s="346"/>
+      <c r="M13" s="346"/>
+      <c r="N13" s="346" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="342"/>
-      <c r="C14" s="342"/>
+      <c r="B14" s="346"/>
+      <c r="C14" s="346"/>
       <c r="D14" s="87" t="s">
         <v>463</v>
       </c>
@@ -22203,10 +22205,10 @@
       <c r="F14" s="87" t="s">
         <v>452</v>
       </c>
-      <c r="G14" s="342"/>
+      <c r="G14" s="346"/>
       <c r="H14" s="101"/>
-      <c r="I14" s="342"/>
-      <c r="J14" s="342"/>
+      <c r="I14" s="346"/>
+      <c r="J14" s="346"/>
       <c r="K14" s="87" t="s">
         <v>463</v>
       </c>
@@ -22216,7 +22218,7 @@
       <c r="M14" s="87" t="s">
         <v>452</v>
       </c>
-      <c r="N14" s="342"/>
+      <c r="N14" s="346"/>
     </row>
     <row r="15" spans="2:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="112">
@@ -22503,10 +22505,10 @@
       </c>
     </row>
     <row r="21" spans="2:14" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="343" t="s">
+      <c r="B21" s="347" t="s">
         <v>474</v>
       </c>
-      <c r="C21" s="344"/>
+      <c r="C21" s="348"/>
       <c r="D21" s="88">
         <f>SUM(D15:D20)</f>
         <v>17</v>
@@ -22521,10 +22523,10 @@
       </c>
       <c r="G21" s="89"/>
       <c r="H21" s="101"/>
-      <c r="I21" s="343" t="s">
+      <c r="I21" s="347" t="s">
         <v>474</v>
       </c>
-      <c r="J21" s="344"/>
+      <c r="J21" s="348"/>
       <c r="K21" s="88">
         <f>SUM(K15:K20)</f>
         <v>16</v>
@@ -22555,58 +22557,58 @@
       <c r="N22" s="98"/>
     </row>
     <row r="23" spans="2:14" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="345" t="s">
+      <c r="B23" s="349" t="s">
         <v>467</v>
       </c>
-      <c r="C23" s="345"/>
-      <c r="D23" s="345"/>
-      <c r="E23" s="345"/>
-      <c r="F23" s="345"/>
-      <c r="G23" s="346"/>
+      <c r="C23" s="349"/>
+      <c r="D23" s="349"/>
+      <c r="E23" s="349"/>
+      <c r="F23" s="349"/>
+      <c r="G23" s="350"/>
       <c r="H23" s="104"/>
-      <c r="I23" s="345" t="s">
+      <c r="I23" s="349" t="s">
         <v>468</v>
       </c>
-      <c r="J23" s="345"/>
-      <c r="K23" s="345"/>
-      <c r="L23" s="345"/>
-      <c r="M23" s="345"/>
-      <c r="N23" s="346"/>
+      <c r="J23" s="349"/>
+      <c r="K23" s="349"/>
+      <c r="L23" s="349"/>
+      <c r="M23" s="349"/>
+      <c r="N23" s="350"/>
     </row>
     <row r="24" spans="2:14" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="342" t="s">
+      <c r="B24" s="346" t="s">
         <v>446</v>
       </c>
-      <c r="C24" s="342" t="s">
+      <c r="C24" s="346" t="s">
         <v>447</v>
       </c>
-      <c r="D24" s="342" t="s">
+      <c r="D24" s="346" t="s">
         <v>461</v>
       </c>
-      <c r="E24" s="342"/>
-      <c r="F24" s="342"/>
-      <c r="G24" s="342" t="s">
+      <c r="E24" s="346"/>
+      <c r="F24" s="346"/>
+      <c r="G24" s="346" t="s">
         <v>462</v>
       </c>
       <c r="H24" s="101"/>
-      <c r="I24" s="342" t="s">
+      <c r="I24" s="346" t="s">
         <v>446</v>
       </c>
-      <c r="J24" s="342" t="s">
+      <c r="J24" s="346" t="s">
         <v>447</v>
       </c>
-      <c r="K24" s="342" t="s">
+      <c r="K24" s="346" t="s">
         <v>461</v>
       </c>
-      <c r="L24" s="342"/>
-      <c r="M24" s="342"/>
-      <c r="N24" s="342" t="s">
+      <c r="L24" s="346"/>
+      <c r="M24" s="346"/>
+      <c r="N24" s="346" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="342"/>
-      <c r="C25" s="342"/>
+      <c r="B25" s="346"/>
+      <c r="C25" s="346"/>
       <c r="D25" s="87" t="s">
         <v>463</v>
       </c>
@@ -22616,10 +22618,10 @@
       <c r="F25" s="87" t="s">
         <v>452</v>
       </c>
-      <c r="G25" s="342"/>
+      <c r="G25" s="346"/>
       <c r="H25" s="101"/>
-      <c r="I25" s="342"/>
-      <c r="J25" s="342"/>
+      <c r="I25" s="346"/>
+      <c r="J25" s="346"/>
       <c r="K25" s="87" t="s">
         <v>463</v>
       </c>
@@ -22629,7 +22631,7 @@
       <c r="M25" s="87" t="s">
         <v>452</v>
       </c>
-      <c r="N25" s="342"/>
+      <c r="N25" s="346"/>
     </row>
     <row r="26" spans="2:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="112">
@@ -22899,10 +22901,10 @@
       <c r="N31" s="124"/>
     </row>
     <row r="32" spans="2:14" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="343" t="s">
+      <c r="B32" s="347" t="s">
         <v>474</v>
       </c>
-      <c r="C32" s="344"/>
+      <c r="C32" s="348"/>
       <c r="D32" s="88">
         <f>SUM(D26:D31)</f>
         <v>15</v>
@@ -22917,10 +22919,10 @@
       </c>
       <c r="G32" s="89"/>
       <c r="H32" s="105"/>
-      <c r="I32" s="343" t="s">
+      <c r="I32" s="347" t="s">
         <v>474</v>
       </c>
-      <c r="J32" s="344"/>
+      <c r="J32" s="348"/>
       <c r="K32" s="88">
         <f>SUM(K26:K30)</f>
         <v>14</v>
@@ -22966,18 +22968,18 @@
       <c r="F34" s="91">
         <v>3</v>
       </c>
-      <c r="G34" s="347" t="s">
+      <c r="G34" s="351" t="s">
         <v>455</v>
       </c>
-      <c r="H34" s="348"/>
-      <c r="I34" s="349"/>
-      <c r="J34" s="350" t="s">
+      <c r="H34" s="352"/>
+      <c r="I34" s="353"/>
+      <c r="J34" s="354" t="s">
         <v>470</v>
       </c>
-      <c r="K34" s="350"/>
-      <c r="L34" s="350"/>
-      <c r="M34" s="350"/>
-      <c r="N34" s="351"/>
+      <c r="K34" s="354"/>
+      <c r="L34" s="354"/>
+      <c r="M34" s="354"/>
+      <c r="N34" s="355"/>
     </row>
     <row r="35" spans="2:14" s="106" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="109"/>
@@ -22995,58 +22997,58 @@
       <c r="N35" s="111"/>
     </row>
     <row r="36" spans="2:14" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="345" t="s">
+      <c r="B36" s="349" t="s">
         <v>473</v>
       </c>
-      <c r="C36" s="345"/>
-      <c r="D36" s="345"/>
-      <c r="E36" s="345"/>
-      <c r="F36" s="345"/>
-      <c r="G36" s="346"/>
+      <c r="C36" s="349"/>
+      <c r="D36" s="349"/>
+      <c r="E36" s="349"/>
+      <c r="F36" s="349"/>
+      <c r="G36" s="350"/>
       <c r="H36" s="104"/>
-      <c r="I36" s="345" t="s">
+      <c r="I36" s="349" t="s">
         <v>471</v>
       </c>
-      <c r="J36" s="345"/>
-      <c r="K36" s="345"/>
-      <c r="L36" s="345"/>
-      <c r="M36" s="345"/>
-      <c r="N36" s="346"/>
+      <c r="J36" s="349"/>
+      <c r="K36" s="349"/>
+      <c r="L36" s="349"/>
+      <c r="M36" s="349"/>
+      <c r="N36" s="350"/>
     </row>
     <row r="37" spans="2:14" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="342" t="s">
+      <c r="B37" s="346" t="s">
         <v>446</v>
       </c>
-      <c r="C37" s="342" t="s">
+      <c r="C37" s="346" t="s">
         <v>447</v>
       </c>
-      <c r="D37" s="342" t="s">
+      <c r="D37" s="346" t="s">
         <v>461</v>
       </c>
-      <c r="E37" s="342"/>
-      <c r="F37" s="342"/>
-      <c r="G37" s="342" t="s">
+      <c r="E37" s="346"/>
+      <c r="F37" s="346"/>
+      <c r="G37" s="346" t="s">
         <v>462</v>
       </c>
       <c r="H37" s="101"/>
-      <c r="I37" s="342" t="s">
+      <c r="I37" s="346" t="s">
         <v>446</v>
       </c>
-      <c r="J37" s="342" t="s">
+      <c r="J37" s="346" t="s">
         <v>447</v>
       </c>
-      <c r="K37" s="342" t="s">
+      <c r="K37" s="346" t="s">
         <v>461</v>
       </c>
-      <c r="L37" s="342"/>
-      <c r="M37" s="342"/>
-      <c r="N37" s="342" t="s">
+      <c r="L37" s="346"/>
+      <c r="M37" s="346"/>
+      <c r="N37" s="346" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="38" spans="2:14" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="342"/>
-      <c r="C38" s="342"/>
+      <c r="B38" s="346"/>
+      <c r="C38" s="346"/>
       <c r="D38" s="87" t="s">
         <v>463</v>
       </c>
@@ -23056,10 +23058,10 @@
       <c r="F38" s="87" t="s">
         <v>452</v>
       </c>
-      <c r="G38" s="342"/>
+      <c r="G38" s="346"/>
       <c r="H38" s="101"/>
-      <c r="I38" s="342"/>
-      <c r="J38" s="342"/>
+      <c r="I38" s="346"/>
+      <c r="J38" s="346"/>
       <c r="K38" s="87" t="s">
         <v>463</v>
       </c>
@@ -23069,7 +23071,7 @@
       <c r="M38" s="87" t="s">
         <v>452</v>
       </c>
-      <c r="N38" s="342"/>
+      <c r="N38" s="346"/>
     </row>
     <row r="39" spans="2:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="112">
@@ -23327,10 +23329,10 @@
       <c r="N44" s="124"/>
     </row>
     <row r="45" spans="2:14" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="343" t="s">
+      <c r="B45" s="347" t="s">
         <v>452</v>
       </c>
-      <c r="C45" s="344"/>
+      <c r="C45" s="348"/>
       <c r="D45" s="88">
         <f>SUM(D39:D44)</f>
         <v>14</v>
@@ -23345,10 +23347,10 @@
       </c>
       <c r="G45" s="89"/>
       <c r="H45" s="102"/>
-      <c r="I45" s="343" t="s">
+      <c r="I45" s="347" t="s">
         <v>452</v>
       </c>
-      <c r="J45" s="344"/>
+      <c r="J45" s="348"/>
       <c r="K45" s="88">
         <f>SUM(K39:K44)</f>
         <v>12</v>
@@ -23371,11 +23373,11 @@
       <c r="F46" s="86"/>
       <c r="G46" s="127"/>
       <c r="H46" s="126"/>
-      <c r="I46" s="335" t="s">
+      <c r="I46" s="339" t="s">
         <v>495</v>
       </c>
-      <c r="J46" s="336"/>
-      <c r="K46" s="337"/>
+      <c r="J46" s="340"/>
+      <c r="K46" s="341"/>
       <c r="L46" s="93">
         <f>F10+M10+F21+M21+F32+M32+F34+F45+M45</f>
         <v>132</v>
@@ -23459,7 +23461,7 @@
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:F34"/>
+      <selection activeCell="F3" sqref="F3:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -23474,35 +23476,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="368" t="s">
+      <c r="A1" s="372" t="s">
         <v>605</v>
       </c>
-      <c r="B1" s="368"/>
-      <c r="C1" s="368"/>
-      <c r="D1" s="368"/>
-      <c r="E1" s="368"/>
-      <c r="F1" s="368"/>
-      <c r="G1" s="369"/>
-      <c r="H1" s="369"/>
-      <c r="I1" s="369"/>
-      <c r="J1" s="368"/>
-      <c r="K1" s="368"/>
-      <c r="L1" s="368"/>
-      <c r="M1" s="368"/>
-      <c r="N1" s="368"/>
-      <c r="O1" s="368"/>
+      <c r="B1" s="372"/>
+      <c r="C1" s="372"/>
+      <c r="D1" s="372"/>
+      <c r="E1" s="372"/>
+      <c r="F1" s="372"/>
+      <c r="G1" s="372"/>
+      <c r="H1" s="372"/>
+      <c r="I1" s="372"/>
+      <c r="J1" s="372"/>
+      <c r="K1" s="372"/>
+      <c r="L1" s="372"/>
+      <c r="M1" s="373"/>
+      <c r="N1" s="373"/>
+      <c r="O1" s="373"/>
       <c r="P1" s="215"/>
       <c r="Q1" s="215"/>
     </row>
     <row r="2" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="359" t="s">
+      <c r="A2" s="364" t="s">
         <v>531</v>
       </c>
-      <c r="B2" s="359"/>
-      <c r="C2" s="359"/>
-      <c r="D2" s="359"/>
-      <c r="E2" s="359"/>
-      <c r="F2" s="359"/>
+      <c r="B2" s="364"/>
+      <c r="C2" s="364"/>
+      <c r="D2" s="364"/>
+      <c r="E2" s="364"/>
+      <c r="F2" s="364"/>
       <c r="G2" s="220" t="s">
         <v>588</v>
       </c>
@@ -23510,14 +23512,14 @@
         <v>582</v>
       </c>
       <c r="I2" s="145"/>
-      <c r="J2" s="359" t="s">
+      <c r="J2" s="364" t="s">
         <v>532</v>
       </c>
-      <c r="K2" s="359"/>
-      <c r="L2" s="359"/>
-      <c r="M2" s="359"/>
-      <c r="N2" s="359"/>
-      <c r="O2" s="359"/>
+      <c r="K2" s="364"/>
+      <c r="L2" s="364"/>
+      <c r="M2" s="364"/>
+      <c r="N2" s="364"/>
+      <c r="O2" s="364"/>
       <c r="P2" s="220" t="s">
         <v>587</v>
       </c>
@@ -23526,47 +23528,47 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="356" t="s">
+      <c r="A3" s="360" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="363" t="s">
+      <c r="B3" s="370" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="364" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="364"/>
-      <c r="E3" s="364"/>
-      <c r="F3" s="356" t="s">
+      <c r="C3" s="362" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="362"/>
+      <c r="E3" s="362"/>
+      <c r="F3" s="360" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="352" t="s">
+      <c r="G3" s="358" t="s">
         <v>602</v>
       </c>
-      <c r="H3" s="353"/>
+      <c r="H3" s="359"/>
       <c r="I3" s="128"/>
-      <c r="J3" s="356" t="s">
+      <c r="J3" s="360" t="s">
         <v>1</v>
       </c>
       <c r="K3" s="365" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="364" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="364"/>
-      <c r="N3" s="364"/>
-      <c r="O3" s="356" t="s">
+      <c r="L3" s="362" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="362"/>
+      <c r="N3" s="362"/>
+      <c r="O3" s="360" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="352" t="s">
+      <c r="P3" s="358" t="s">
         <v>602</v>
       </c>
-      <c r="Q3" s="353"/>
+      <c r="Q3" s="359"/>
     </row>
     <row r="4" spans="1:17" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="362"/>
-      <c r="B4" s="363"/>
+      <c r="A4" s="366"/>
+      <c r="B4" s="370"/>
       <c r="C4" s="129" t="s">
         <v>4</v>
       </c>
@@ -23576,7 +23578,7 @@
       <c r="E4" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="356"/>
+      <c r="F4" s="360"/>
       <c r="G4" s="222" t="s">
         <v>603</v>
       </c>
@@ -23584,7 +23586,7 @@
         <v>604</v>
       </c>
       <c r="I4" s="128"/>
-      <c r="J4" s="362"/>
+      <c r="J4" s="366"/>
       <c r="K4" s="365"/>
       <c r="L4" s="129" t="s">
         <v>4</v>
@@ -23595,7 +23597,7 @@
       <c r="N4" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="356"/>
+      <c r="O4" s="360"/>
       <c r="P4" s="222" t="s">
         <v>603</v>
       </c>
@@ -23869,10 +23871,10 @@
       <c r="Q9" s="227"/>
     </row>
     <row r="10" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="357" t="s">
+      <c r="A10" s="361" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="357"/>
+      <c r="B10" s="361"/>
       <c r="C10" s="133">
         <f>SUM(C5:C9)</f>
         <v>14</v>
@@ -23886,13 +23888,13 @@
         <v>15</v>
       </c>
       <c r="F10" s="132"/>
-      <c r="G10" s="354"/>
-      <c r="H10" s="355"/>
+      <c r="G10" s="356"/>
+      <c r="H10" s="357"/>
       <c r="I10" s="24"/>
-      <c r="J10" s="357" t="s">
+      <c r="J10" s="361" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="357"/>
+      <c r="K10" s="361"/>
       <c r="L10" s="133">
         <f>SUM(L5:L9)</f>
         <v>14</v>
@@ -23906,8 +23908,8 @@
         <v>15</v>
       </c>
       <c r="O10" s="132"/>
-      <c r="P10" s="354"/>
-      <c r="Q10" s="355"/>
+      <c r="P10" s="356"/>
+      <c r="Q10" s="357"/>
     </row>
     <row r="11" spans="1:17" s="25" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
@@ -23919,80 +23921,80 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
       <c r="I11" s="135"/>
-      <c r="J11" s="367"/>
-      <c r="K11" s="367"/>
-      <c r="L11" s="367"/>
-      <c r="M11" s="367"/>
-      <c r="N11" s="367"/>
-      <c r="O11" s="367"/>
+      <c r="J11" s="371"/>
+      <c r="K11" s="371"/>
+      <c r="L11" s="371"/>
+      <c r="M11" s="371"/>
+      <c r="N11" s="371"/>
+      <c r="O11" s="371"/>
       <c r="P11" s="214"/>
       <c r="Q11" s="214"/>
     </row>
     <row r="12" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="359" t="s">
+      <c r="A12" s="364" t="s">
         <v>533</v>
       </c>
-      <c r="B12" s="359"/>
-      <c r="C12" s="359"/>
-      <c r="D12" s="359"/>
-      <c r="E12" s="359"/>
-      <c r="F12" s="359"/>
+      <c r="B12" s="364"/>
+      <c r="C12" s="364"/>
+      <c r="D12" s="364"/>
+      <c r="E12" s="364"/>
+      <c r="F12" s="364"/>
       <c r="G12" s="220"/>
       <c r="H12" s="221"/>
       <c r="I12" s="128"/>
-      <c r="J12" s="359" t="s">
+      <c r="J12" s="364" t="s">
         <v>534</v>
       </c>
-      <c r="K12" s="359"/>
-      <c r="L12" s="359"/>
-      <c r="M12" s="359"/>
-      <c r="N12" s="359"/>
-      <c r="O12" s="359"/>
+      <c r="K12" s="364"/>
+      <c r="L12" s="364"/>
+      <c r="M12" s="364"/>
+      <c r="N12" s="364"/>
+      <c r="O12" s="364"/>
       <c r="P12" s="220"/>
       <c r="Q12" s="221"/>
     </row>
     <row r="13" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="356" t="s">
+      <c r="A13" s="360" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="363" t="s">
+      <c r="B13" s="370" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="364" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="364"/>
-      <c r="E13" s="364"/>
-      <c r="F13" s="356" t="s">
+      <c r="C13" s="362" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="362"/>
+      <c r="E13" s="362"/>
+      <c r="F13" s="360" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="352" t="s">
+      <c r="G13" s="358" t="s">
         <v>602</v>
       </c>
-      <c r="H13" s="353"/>
+      <c r="H13" s="359"/>
       <c r="I13" s="128"/>
-      <c r="J13" s="356" t="s">
+      <c r="J13" s="360" t="s">
         <v>1</v>
       </c>
       <c r="K13" s="365" t="s">
         <v>2</v>
       </c>
-      <c r="L13" s="364" t="s">
-        <v>3</v>
-      </c>
-      <c r="M13" s="364"/>
-      <c r="N13" s="364"/>
-      <c r="O13" s="356" t="s">
+      <c r="L13" s="362" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" s="362"/>
+      <c r="N13" s="362"/>
+      <c r="O13" s="360" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="352" t="s">
+      <c r="P13" s="358" t="s">
         <v>602</v>
       </c>
-      <c r="Q13" s="353"/>
+      <c r="Q13" s="359"/>
     </row>
     <row r="14" spans="1:17" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="362"/>
-      <c r="B14" s="363"/>
+      <c r="A14" s="366"/>
+      <c r="B14" s="370"/>
       <c r="C14" s="129" t="s">
         <v>4</v>
       </c>
@@ -24002,7 +24004,7 @@
       <c r="E14" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="356"/>
+      <c r="F14" s="360"/>
       <c r="G14" s="222" t="s">
         <v>603</v>
       </c>
@@ -24010,7 +24012,7 @@
         <v>604</v>
       </c>
       <c r="I14" s="128"/>
-      <c r="J14" s="362"/>
+      <c r="J14" s="366"/>
       <c r="K14" s="365"/>
       <c r="L14" s="129" t="s">
         <v>4</v>
@@ -24021,7 +24023,7 @@
       <c r="N14" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="O14" s="356"/>
+      <c r="O14" s="360"/>
       <c r="P14" s="222" t="s">
         <v>603</v>
       </c>
@@ -24332,10 +24334,10 @@
       <c r="Q20" s="228"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="357" t="s">
+      <c r="A21" s="361" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="357"/>
+      <c r="B21" s="361"/>
       <c r="C21" s="133">
         <f>SUM(C15:C20)</f>
         <v>17</v>
@@ -24349,13 +24351,13 @@
         <v>18</v>
       </c>
       <c r="F21" s="132"/>
-      <c r="G21" s="354"/>
-      <c r="H21" s="355"/>
+      <c r="G21" s="356"/>
+      <c r="H21" s="357"/>
       <c r="I21" s="24"/>
-      <c r="J21" s="357" t="s">
+      <c r="J21" s="361" t="s">
         <v>6</v>
       </c>
-      <c r="K21" s="357"/>
+      <c r="K21" s="361"/>
       <c r="L21" s="133">
         <f>SUM(L15:L20)</f>
         <v>16</v>
@@ -24369,8 +24371,8 @@
         <v>18</v>
       </c>
       <c r="O21" s="132"/>
-      <c r="P21" s="354"/>
-      <c r="Q21" s="355"/>
+      <c r="P21" s="356"/>
+      <c r="Q21" s="357"/>
     </row>
     <row r="22" spans="1:17" s="25" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="24"/>
@@ -24392,70 +24394,70 @@
       <c r="Q22" s="24"/>
     </row>
     <row r="23" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="359" t="s">
+      <c r="A23" s="364" t="s">
         <v>537</v>
       </c>
-      <c r="B23" s="359"/>
-      <c r="C23" s="359"/>
-      <c r="D23" s="359"/>
-      <c r="E23" s="359"/>
-      <c r="F23" s="359"/>
+      <c r="B23" s="364"/>
+      <c r="C23" s="364"/>
+      <c r="D23" s="364"/>
+      <c r="E23" s="364"/>
+      <c r="F23" s="364"/>
       <c r="G23" s="220"/>
       <c r="H23" s="221"/>
       <c r="I23" s="134"/>
-      <c r="J23" s="359" t="s">
+      <c r="J23" s="364" t="s">
         <v>538</v>
       </c>
-      <c r="K23" s="359"/>
-      <c r="L23" s="359"/>
-      <c r="M23" s="359"/>
-      <c r="N23" s="359"/>
-      <c r="O23" s="359"/>
+      <c r="K23" s="364"/>
+      <c r="L23" s="364"/>
+      <c r="M23" s="364"/>
+      <c r="N23" s="364"/>
+      <c r="O23" s="364"/>
       <c r="P23" s="220"/>
       <c r="Q23" s="221"/>
     </row>
     <row r="24" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="356" t="s">
+      <c r="A24" s="360" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="363" t="s">
+      <c r="B24" s="370" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="364" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="364"/>
-      <c r="E24" s="364"/>
-      <c r="F24" s="356" t="s">
+      <c r="C24" s="362" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="362"/>
+      <c r="E24" s="362"/>
+      <c r="F24" s="360" t="s">
         <v>25</v>
       </c>
-      <c r="G24" s="352" t="s">
+      <c r="G24" s="358" t="s">
         <v>602</v>
       </c>
-      <c r="H24" s="353"/>
+      <c r="H24" s="359"/>
       <c r="I24" s="136"/>
-      <c r="J24" s="356" t="s">
+      <c r="J24" s="360" t="s">
         <v>1</v>
       </c>
       <c r="K24" s="365" t="s">
         <v>2</v>
       </c>
-      <c r="L24" s="364" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" s="364"/>
-      <c r="N24" s="364"/>
-      <c r="O24" s="356" t="s">
+      <c r="L24" s="362" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="362"/>
+      <c r="N24" s="362"/>
+      <c r="O24" s="360" t="s">
         <v>25</v>
       </c>
-      <c r="P24" s="352" t="s">
+      <c r="P24" s="358" t="s">
         <v>602</v>
       </c>
-      <c r="Q24" s="353"/>
+      <c r="Q24" s="359"/>
     </row>
     <row r="25" spans="1:17" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="362"/>
-      <c r="B25" s="363"/>
+      <c r="A25" s="366"/>
+      <c r="B25" s="370"/>
       <c r="C25" s="129" t="s">
         <v>4</v>
       </c>
@@ -24465,7 +24467,7 @@
       <c r="E25" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="356"/>
+      <c r="F25" s="360"/>
       <c r="G25" s="222" t="s">
         <v>603</v>
       </c>
@@ -24473,7 +24475,7 @@
         <v>604</v>
       </c>
       <c r="I25" s="134"/>
-      <c r="J25" s="362"/>
+      <c r="J25" s="366"/>
       <c r="K25" s="365"/>
       <c r="L25" s="129" t="s">
         <v>4</v>
@@ -24484,7 +24486,7 @@
       <c r="N25" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="O25" s="356"/>
+      <c r="O25" s="360"/>
       <c r="P25" s="222" t="s">
         <v>603</v>
       </c>
@@ -24778,10 +24780,10 @@
       <c r="Q31" s="228"/>
     </row>
     <row r="32" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="357" t="s">
+      <c r="A32" s="361" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="357"/>
+      <c r="B32" s="361"/>
       <c r="C32" s="133">
         <f>SUM(C26:C31)</f>
         <v>15</v>
@@ -24795,13 +24797,13 @@
         <v>18</v>
       </c>
       <c r="F32" s="132"/>
-      <c r="G32" s="354"/>
-      <c r="H32" s="355"/>
+      <c r="G32" s="356"/>
+      <c r="H32" s="357"/>
       <c r="I32" s="134"/>
-      <c r="J32" s="357" t="s">
+      <c r="J32" s="361" t="s">
         <v>6</v>
       </c>
-      <c r="K32" s="357"/>
+      <c r="K32" s="361"/>
       <c r="L32" s="133">
         <f>SUM(L26:L31)</f>
         <v>14</v>
@@ -24815,8 +24817,8 @@
         <v>15</v>
       </c>
       <c r="O32" s="132"/>
-      <c r="P32" s="354"/>
-      <c r="Q32" s="355"/>
+      <c r="P32" s="356"/>
+      <c r="Q32" s="357"/>
     </row>
     <row r="33" spans="1:17" s="25" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="24"/>
@@ -24838,37 +24840,37 @@
       <c r="Q33" s="24"/>
     </row>
     <row r="34" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="370">
+      <c r="A34" s="229">
         <v>1304369</v>
       </c>
-      <c r="B34" s="371" t="str">
+      <c r="B34" s="230" t="str">
         <f>VLOOKUP($A34,Crses!$A$2:$J$283,3,FALSE)</f>
         <v>Field Training</v>
       </c>
-      <c r="C34" s="372">
+      <c r="C34" s="231">
         <f>VLOOKUP($A34,[1]Crses!$A$2:$J$254,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="372">
+      <c r="D34" s="231">
         <f>VLOOKUP($A34,[1]Crses!$A$2:$J$254,5,FALSE)</f>
         <v>6</v>
       </c>
-      <c r="E34" s="372">
+      <c r="E34" s="231">
         <f>VLOOKUP($A34,[1]Crses!$A$2:$J$254,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="F34" s="373" t="str">
+      <c r="F34" s="232" t="str">
         <f>VLOOKUP($A34,[1]Crses!$A$2:$J$254,7,FALSE)</f>
         <v>Pass. 90Cr. Hrs.</v>
       </c>
       <c r="G34" s="155"/>
       <c r="H34" s="155"/>
       <c r="I34" s="137"/>
-      <c r="J34" s="366" t="s">
+      <c r="J34" s="363" t="s">
         <v>539</v>
       </c>
-      <c r="K34" s="366"/>
-      <c r="L34" s="366"/>
+      <c r="K34" s="363"/>
+      <c r="L34" s="363"/>
       <c r="M34" s="137"/>
       <c r="N34" s="137"/>
       <c r="O34" s="138"/>
@@ -24895,70 +24897,70 @@
       <c r="Q35" s="153"/>
     </row>
     <row r="36" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="359" t="s">
+      <c r="A36" s="364" t="s">
         <v>540</v>
       </c>
-      <c r="B36" s="359"/>
-      <c r="C36" s="359"/>
-      <c r="D36" s="359"/>
-      <c r="E36" s="359"/>
-      <c r="F36" s="359"/>
+      <c r="B36" s="364"/>
+      <c r="C36" s="364"/>
+      <c r="D36" s="364"/>
+      <c r="E36" s="364"/>
+      <c r="F36" s="364"/>
       <c r="G36" s="220"/>
       <c r="H36" s="221"/>
       <c r="I36" s="136"/>
-      <c r="J36" s="359" t="s">
+      <c r="J36" s="364" t="s">
         <v>541</v>
       </c>
-      <c r="K36" s="359"/>
-      <c r="L36" s="359"/>
-      <c r="M36" s="359"/>
-      <c r="N36" s="359"/>
-      <c r="O36" s="359"/>
+      <c r="K36" s="364"/>
+      <c r="L36" s="364"/>
+      <c r="M36" s="364"/>
+      <c r="N36" s="364"/>
+      <c r="O36" s="364"/>
       <c r="P36" s="220"/>
       <c r="Q36" s="221"/>
     </row>
     <row r="37" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="356" t="s">
+      <c r="A37" s="360" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="363" t="s">
+      <c r="B37" s="370" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="364" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="364"/>
-      <c r="E37" s="364"/>
-      <c r="F37" s="356" t="s">
+      <c r="C37" s="362" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="362"/>
+      <c r="E37" s="362"/>
+      <c r="F37" s="360" t="s">
         <v>25</v>
       </c>
-      <c r="G37" s="352" t="s">
+      <c r="G37" s="358" t="s">
         <v>602</v>
       </c>
-      <c r="H37" s="353"/>
+      <c r="H37" s="359"/>
       <c r="I37" s="134"/>
-      <c r="J37" s="356" t="s">
+      <c r="J37" s="360" t="s">
         <v>1</v>
       </c>
       <c r="K37" s="365" t="s">
         <v>2</v>
       </c>
-      <c r="L37" s="364" t="s">
-        <v>3</v>
-      </c>
-      <c r="M37" s="364"/>
-      <c r="N37" s="364"/>
-      <c r="O37" s="356" t="s">
+      <c r="L37" s="362" t="s">
+        <v>3</v>
+      </c>
+      <c r="M37" s="362"/>
+      <c r="N37" s="362"/>
+      <c r="O37" s="360" t="s">
         <v>25</v>
       </c>
-      <c r="P37" s="352" t="s">
+      <c r="P37" s="358" t="s">
         <v>602</v>
       </c>
-      <c r="Q37" s="353"/>
+      <c r="Q37" s="359"/>
     </row>
     <row r="38" spans="1:17" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="362"/>
-      <c r="B38" s="363"/>
+      <c r="A38" s="366"/>
+      <c r="B38" s="370"/>
       <c r="C38" s="129" t="s">
         <v>4</v>
       </c>
@@ -24968,7 +24970,7 @@
       <c r="E38" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="F38" s="356"/>
+      <c r="F38" s="360"/>
       <c r="G38" s="222" t="s">
         <v>603</v>
       </c>
@@ -24976,7 +24978,7 @@
         <v>604</v>
       </c>
       <c r="I38" s="136"/>
-      <c r="J38" s="362"/>
+      <c r="J38" s="366"/>
       <c r="K38" s="365"/>
       <c r="L38" s="129" t="s">
         <v>4</v>
@@ -24987,7 +24989,7 @@
       <c r="N38" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="O38" s="356"/>
+      <c r="O38" s="360"/>
       <c r="P38" s="222" t="s">
         <v>603</v>
       </c>
@@ -25267,10 +25269,10 @@
       <c r="Q44" s="228"/>
     </row>
     <row r="45" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="357" t="s">
+      <c r="A45" s="361" t="s">
         <v>6</v>
       </c>
-      <c r="B45" s="357"/>
+      <c r="B45" s="361"/>
       <c r="C45" s="133">
         <f>SUM(C39:C44)</f>
         <v>14</v>
@@ -25284,13 +25286,13 @@
         <v>16</v>
       </c>
       <c r="F45" s="132"/>
-      <c r="G45" s="354"/>
-      <c r="H45" s="355"/>
+      <c r="G45" s="356"/>
+      <c r="H45" s="357"/>
       <c r="I45" s="136"/>
-      <c r="J45" s="357" t="s">
+      <c r="J45" s="361" t="s">
         <v>6</v>
       </c>
-      <c r="K45" s="357"/>
+      <c r="K45" s="361"/>
       <c r="L45" s="133">
         <f>SUM(L39:L44)</f>
         <v>12</v>
@@ -25304,27 +25306,27 @@
         <v>14</v>
       </c>
       <c r="O45" s="132"/>
-      <c r="P45" s="354"/>
-      <c r="Q45" s="355"/>
+      <c r="P45" s="356"/>
+      <c r="Q45" s="357"/>
     </row>
     <row r="46" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="358" t="s">
+      <c r="A46" s="367" t="s">
         <v>543</v>
       </c>
-      <c r="B46" s="358"/>
-      <c r="C46" s="359" t="s">
+      <c r="B46" s="367"/>
+      <c r="C46" s="364" t="s">
         <v>530</v>
       </c>
-      <c r="D46" s="359"/>
-      <c r="E46" s="359"/>
-      <c r="F46" s="359"/>
+      <c r="D46" s="364"/>
+      <c r="E46" s="364"/>
+      <c r="F46" s="364"/>
       <c r="G46" s="213"/>
       <c r="H46" s="213"/>
       <c r="I46" s="141"/>
-      <c r="J46" s="360" t="s">
+      <c r="J46" s="368" t="s">
         <v>544</v>
       </c>
-      <c r="K46" s="361"/>
+      <c r="K46" s="369"/>
       <c r="L46" s="139">
         <f>E10+N10+E21+N21+E32+N32+E45+N45+E34</f>
         <v>132</v>
@@ -25339,7 +25341,6 @@
   <mergeCells count="70">
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="J12:O12"/>
-    <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="J2:O2"/>
     <mergeCell ref="A3:A4"/>
@@ -25352,24 +25353,18 @@
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="J10:K10"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="J11:O11"/>
+    <mergeCell ref="A1:L1"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="J13:J14"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="J24:J25"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="J23:O23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G21:H21"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="C46:F46"/>
     <mergeCell ref="J46:K46"/>
@@ -25381,10 +25376,6 @@
     <mergeCell ref="K37:K38"/>
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="G45:H45"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="O37:O38"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="J45:K45"/>
     <mergeCell ref="L37:N37"/>
@@ -25397,16 +25388,27 @@
     <mergeCell ref="K24:K25"/>
     <mergeCell ref="L24:N24"/>
     <mergeCell ref="A24:A25"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="J24:J25"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="J11:O11"/>
     <mergeCell ref="P45:Q45"/>
     <mergeCell ref="P21:Q21"/>
     <mergeCell ref="P24:Q24"/>
     <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="G32:H32"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Example" prompt="20161_x000a_20162" sqref="G7:G10 P41:P43 P7:P10 P5 G15 G21 G17:G19 P15 P21 P17:P19 P26 P32 P28:P30 G26 G32 G28:G30 G39 G45 G41:G43 P39 P45 G5" xr:uid="{8D474173-F565-459A-88F1-39AE17AF3ECD}">
